--- a/GL120_Script_ReverseJournals_21B.xlsx
+++ b/GL120_Script_ReverseJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB64897-38CF-47CF-A535-6B4F529C3D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF4BAC-433E-47B1-AE88-F1E99536B2F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReverseJournal" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="464">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -20547,7 +20547,7 @@
   <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20836,9 +20836,7 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
@@ -20875,9 +20873,7 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="13">
-      <c r="A9" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
@@ -20910,9 +20906,7 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="13">
-      <c r="A10" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
@@ -20949,9 +20943,7 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="13">
-      <c r="A11" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
@@ -20984,9 +20976,7 @@
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="13">
-      <c r="A12" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
@@ -21023,9 +21013,7 @@
       <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="13">
-      <c r="A13" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
@@ -21058,9 +21046,7 @@
       <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" ht="13">
-      <c r="A14" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
@@ -21097,9 +21083,7 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="13">
-      <c r="A15" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
         <v>1</v>
       </c>

--- a/GL120_Script_ReverseJournals_21B.xlsx
+++ b/GL120_Script_ReverseJournals_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF4BAC-433E-47B1-AE88-F1E99536B2F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ADE2C3-C232-4FA7-B06B-59B741AB4706}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="465">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -538,9 +536,6 @@
     <t>SelectCurrency</t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t>ConversionRate</t>
   </si>
   <si>
@@ -1427,6 +1422,12 @@
   </si>
   <si>
     <t>Step 162</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
   </si>
 </sst>
 </file>
@@ -20547,7 +20548,7 @@
   <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20609,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O1" s="12"/>
     </row>
@@ -20640,7 +20641,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="15"/>
@@ -20677,12 +20678,12 @@
         <v>40</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="9"/>
@@ -20696,10 +20697,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>26</v>
@@ -20719,7 +20720,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="9"/>
@@ -20756,7 +20757,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="9"/>
@@ -20793,7 +20794,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="9"/>
@@ -20830,7 +20831,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="9"/>
@@ -20841,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>50</v>
@@ -20862,12 +20863,12 @@
         <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="9"/>
@@ -20878,7 +20879,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>65</v>
@@ -20900,7 +20901,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="9"/>
@@ -20911,13 +20912,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>26</v>
@@ -20926,18 +20927,18 @@
         <v>47</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="9"/>
@@ -20948,13 +20949,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>26</v>
@@ -20963,14 +20964,14 @@
         <v>24</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="9"/>
@@ -20981,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>63</v>
@@ -20996,18 +20997,18 @@
         <v>47</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="9"/>
@@ -21018,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>65</v>
@@ -21033,14 +21034,14 @@
         <v>24</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="18"/>
       <c r="K13" s="16"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="9"/>
@@ -21051,10 +21052,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>46</v>
@@ -21072,12 +21073,12 @@
         <v>40</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="9"/>
@@ -21088,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>68</v>
@@ -21110,20 +21111,20 @@
       <c r="K15" s="16"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="13">
       <c r="A16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>72</v>
@@ -21144,25 +21145,25 @@
         <v>40</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" ht="13">
       <c r="A17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>73</v>
@@ -21184,20 +21185,20 @@
       <c r="K17" s="16"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" ht="13">
       <c r="A18" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>88</v>
@@ -21218,25 +21219,25 @@
         <v>40</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" ht="13">
       <c r="A19" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>89</v>
@@ -21258,20 +21259,20 @@
       <c r="K19" s="16"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" ht="13">
       <c r="A20" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>151</v>
@@ -21286,70 +21287,70 @@
         <v>47</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" ht="13">
       <c r="A21" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>159</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" ht="13">
       <c r="A22" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>145</v>
@@ -21370,25 +21371,25 @@
         <v>40</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" ht="13">
       <c r="A23" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>146</v>
@@ -21400,7 +21401,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>142</v>
@@ -21410,20 +21411,20 @@
       <c r="K23" s="16"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" ht="13">
       <c r="A24" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>163</v>
@@ -21444,62 +21445,62 @@
         <v>40</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" ht="13">
       <c r="A25" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F25" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" ht="13">
       <c r="A26" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>158</v>
@@ -21520,25 +21521,25 @@
         <v>40</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" ht="13">
       <c r="A27" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>159</v>
@@ -21550,7 +21551,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>149</v>
@@ -21560,20 +21561,20 @@
       <c r="K27" s="16"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" ht="13">
       <c r="A28" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>160</v>
@@ -21594,28 +21595,28 @@
         <v>40</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:15" ht="13">
       <c r="A29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>46</v>
@@ -21624,19 +21625,19 @@
         <v>26</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>149</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" s="9"/>
@@ -21647,7 +21648,7 @@
         <v>108</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>160</v>
@@ -21662,31 +21663,31 @@
         <v>43</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15" ht="13">
       <c r="A31" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>151</v>
@@ -21707,25 +21708,25 @@
         <v>40</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15" ht="13">
       <c r="A32" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>55</v>
@@ -21749,57 +21750,57 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15" ht="13">
       <c r="A33" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F33" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:15" ht="13">
       <c r="A34" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>95</v>
@@ -21820,25 +21821,25 @@
         <v>40</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:15" ht="13">
       <c r="A35" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>98</v>
@@ -21859,25 +21860,25 @@
         <v>40</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:15" ht="13">
       <c r="A36" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>97</v>
@@ -21899,23 +21900,23 @@
       <c r="K36" s="16"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="9"/>
     </row>
     <row r="37" spans="1:15" ht="13">
       <c r="A37" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>46</v>
@@ -21927,34 +21928,34 @@
         <v>47</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" ht="13">
       <c r="A38" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>46</v>
@@ -21966,37 +21967,37 @@
         <v>47</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" ht="13">
       <c r="A39" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>26</v>
@@ -22005,30 +22006,30 @@
         <v>24</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I39" s="16"/>
       <c r="J39" s="18"/>
       <c r="K39" s="16"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" ht="13">
       <c r="A40" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>46</v>
@@ -22040,37 +22041,37 @@
         <v>47</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15" ht="13">
       <c r="A41" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>26</v>
@@ -22079,14 +22080,14 @@
         <v>24</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="18"/>
       <c r="K41" s="16"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" s="9"/>
@@ -22097,10 +22098,10 @@
         <v>108</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>46</v>
@@ -22112,18 +22113,18 @@
         <v>47</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K42" s="16"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="9"/>
@@ -22134,13 +22135,13 @@
         <v>108</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>26</v>
@@ -22149,14 +22150,14 @@
         <v>24</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
       <c r="K43" s="16"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="9"/>
@@ -22167,13 +22168,13 @@
         <v>108</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>26</v>
@@ -22182,18 +22183,18 @@
         <v>43</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K44" s="16"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="9"/>
@@ -22204,31 +22205,31 @@
         <v>108</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K45" s="16"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N45" s="15"/>
       <c r="O45" s="9"/>
@@ -22239,31 +22240,31 @@
         <v>108</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K46" s="16"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="9"/>
@@ -22274,13 +22275,13 @@
         <v>108</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>26</v>
@@ -22289,67 +22290,67 @@
         <v>24</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="16"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" ht="13">
       <c r="A48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K48" s="16"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15" ht="13">
       <c r="A49" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>46</v>
@@ -22361,37 +22362,37 @@
         <v>47</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K49" s="16"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="13">
       <c r="A50" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D50" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>26</v>
@@ -22400,30 +22401,30 @@
         <v>24</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="16"/>
       <c r="J50" s="18"/>
       <c r="K50" s="16"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15" ht="13">
       <c r="A51" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>46</v>
@@ -22441,28 +22442,28 @@
         <v>40</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K51" s="16"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="13">
       <c r="A52" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>46</v>
@@ -22474,90 +22475,90 @@
         <v>47</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K52" s="16"/>
       <c r="L52" s="15"/>
       <c r="M52" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" ht="13">
       <c r="A53" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I53" s="16"/>
       <c r="J53" s="18"/>
       <c r="K53" s="16"/>
       <c r="L53" s="15"/>
       <c r="M53" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="13">
       <c r="A54" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="9"/>
@@ -22568,31 +22569,31 @@
         <v>108</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D55" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="15"/>
       <c r="M55" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="9"/>
@@ -22603,10 +22604,10 @@
         <v>108</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>46</v>
@@ -22618,18 +22619,18 @@
         <v>47</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K56" s="16"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="9"/>
@@ -22640,13 +22641,13 @@
         <v>108</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D57" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>26</v>
@@ -22655,141 +22656,141 @@
         <v>24</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="18"/>
       <c r="K57" s="16"/>
       <c r="L57" s="15"/>
       <c r="M57" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="9"/>
     </row>
     <row r="58" spans="1:15" ht="13">
       <c r="A58" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N58" s="15"/>
       <c r="O58" s="9"/>
     </row>
     <row r="59" spans="1:15" ht="13">
       <c r="A59" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="1:15" ht="13">
       <c r="A60" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="9"/>
     </row>
     <row r="61" spans="1:15" ht="13">
       <c r="A61" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>46</v>
@@ -22807,25 +22808,25 @@
         <v>40</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K61" s="16"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N61" s="15"/>
       <c r="O61" s="9"/>
     </row>
     <row r="62" spans="1:15" ht="13">
       <c r="A62" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>109</v>
@@ -22837,7 +22838,7 @@
         <v>26</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>62</v>
@@ -22851,60 +22852,60 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N62" s="15"/>
       <c r="O62" s="9"/>
     </row>
     <row r="63" spans="1:15" ht="13">
       <c r="A63" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N63" s="15"/>
       <c r="O63" s="9"/>
     </row>
     <row r="64" spans="1:15" ht="13">
       <c r="A64" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>46</v>
@@ -22916,37 +22917,37 @@
         <v>47</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N64" s="15"/>
       <c r="O64" s="9"/>
     </row>
     <row r="65" spans="1:15" ht="13">
       <c r="A65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D65" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>26</v>
@@ -22955,64 +22956,64 @@
         <v>24</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
       <c r="M65" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N65" s="15"/>
       <c r="O65" s="9"/>
     </row>
     <row r="66" spans="1:15" ht="13">
       <c r="A66" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N66" s="15"/>
       <c r="O66" s="9"/>
     </row>
     <row r="67" spans="1:15" ht="13">
       <c r="A67" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>72</v>
@@ -23033,25 +23034,25 @@
         <v>40</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K67" s="16"/>
       <c r="L67" s="15"/>
       <c r="M67" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N67" s="15"/>
       <c r="O67" s="9"/>
     </row>
     <row r="68" spans="1:15" ht="13">
       <c r="A68" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>73</v>
@@ -23073,20 +23074,20 @@
       <c r="K68" s="16"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N68" s="15"/>
       <c r="O68" s="9"/>
     </row>
     <row r="69" spans="1:15" ht="13">
       <c r="A69" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>88</v>
@@ -23107,25 +23108,25 @@
         <v>40</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K69" s="16"/>
       <c r="L69" s="15"/>
       <c r="M69" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="9"/>
     </row>
     <row r="70" spans="1:15" ht="13">
       <c r="A70" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>89</v>
@@ -23147,20 +23148,20 @@
       <c r="K70" s="16"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="9"/>
     </row>
     <row r="71" spans="1:15" ht="13">
       <c r="A71" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>145</v>
@@ -23181,25 +23182,25 @@
         <v>40</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K71" s="16"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="9"/>
     </row>
     <row r="72" spans="1:15" ht="13">
       <c r="A72" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>146</v>
@@ -23221,20 +23222,20 @@
       <c r="K72" s="16"/>
       <c r="L72" s="15"/>
       <c r="M72" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="9"/>
     </row>
     <row r="73" spans="1:15" ht="13">
       <c r="A73" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>163</v>
@@ -23255,62 +23256,62 @@
         <v>40</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K73" s="16"/>
       <c r="L73" s="15"/>
       <c r="M73" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N73" s="15"/>
       <c r="O73" s="9"/>
     </row>
     <row r="74" spans="1:15" ht="13">
       <c r="A74" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D74" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F74" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
       <c r="M74" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N74" s="15"/>
       <c r="O74" s="9"/>
     </row>
     <row r="75" spans="1:15" ht="13">
       <c r="A75" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>151</v>
@@ -23332,96 +23333,96 @@
       <c r="K75" s="16"/>
       <c r="L75" s="15"/>
       <c r="M75" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N75" s="15"/>
       <c r="O75" s="9"/>
     </row>
     <row r="76" spans="1:15" ht="13">
       <c r="A76" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>159</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K76" s="16"/>
       <c r="L76" s="15"/>
       <c r="M76" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N76" s="15"/>
       <c r="O76" s="9"/>
     </row>
     <row r="77" spans="1:15" ht="13">
       <c r="A77" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D77" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F77" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K77" s="16"/>
       <c r="L77" s="15"/>
       <c r="M77" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N77" s="15"/>
       <c r="O77" s="9"/>
     </row>
     <row r="78" spans="1:15" ht="13">
       <c r="A78" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>158</v>
@@ -23442,25 +23443,25 @@
         <v>40</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K78" s="16"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N78" s="15"/>
       <c r="O78" s="9"/>
     </row>
     <row r="79" spans="1:15" ht="13">
       <c r="A79" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>160</v>
@@ -23481,28 +23482,28 @@
         <v>40</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K79" s="16"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N79" s="15"/>
       <c r="O79" s="9"/>
     </row>
     <row r="80" spans="1:15" ht="13">
       <c r="A80" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>46</v>
@@ -23511,19 +23512,19 @@
         <v>26</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>149</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K80" s="16"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N80" s="15"/>
       <c r="O80" s="9"/>
@@ -23534,7 +23535,7 @@
         <v>108</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>160</v>
@@ -23549,18 +23550,18 @@
         <v>24</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K81" s="16"/>
       <c r="L81" s="15"/>
       <c r="M81" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N81" s="15"/>
       <c r="O81" s="9"/>
@@ -23571,7 +23572,7 @@
         <v>108</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>160</v>
@@ -23586,31 +23587,31 @@
         <v>43</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I82" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K82" s="16"/>
       <c r="L82" s="15"/>
       <c r="M82" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N82" s="15"/>
       <c r="O82" s="9"/>
     </row>
     <row r="83" spans="1:15" ht="13">
       <c r="A83" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>55</v>
@@ -23634,57 +23635,57 @@
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
       <c r="M83" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="9"/>
     </row>
     <row r="84" spans="1:15" ht="13">
       <c r="A84" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D84" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F84" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
       <c r="M84" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N84" s="15"/>
       <c r="O84" s="9"/>
     </row>
     <row r="85" spans="1:15" ht="13">
       <c r="A85" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>95</v>
@@ -23705,25 +23706,25 @@
         <v>40</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K85" s="16"/>
       <c r="L85" s="15"/>
       <c r="M85" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="9"/>
     </row>
     <row r="86" spans="1:15" ht="13">
       <c r="A86" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>98</v>
@@ -23744,25 +23745,25 @@
         <v>40</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="15"/>
       <c r="M86" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N86" s="15"/>
       <c r="O86" s="9"/>
     </row>
     <row r="87" spans="1:15" ht="13">
       <c r="A87" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>97</v>
@@ -23784,23 +23785,23 @@
       <c r="K87" s="16"/>
       <c r="L87" s="15"/>
       <c r="M87" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="9"/>
     </row>
     <row r="88" spans="1:15" ht="13">
       <c r="A88" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>46</v>
@@ -23812,37 +23813,37 @@
         <v>47</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K88" s="16"/>
       <c r="L88" s="15"/>
       <c r="M88" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N88" s="15"/>
       <c r="O88" s="9"/>
     </row>
     <row r="89" spans="1:15" ht="13">
       <c r="A89" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D89" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>26</v>
@@ -23851,30 +23852,30 @@
         <v>24</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="18"/>
       <c r="K89" s="16"/>
       <c r="L89" s="15"/>
       <c r="M89" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N89" s="15"/>
       <c r="O89" s="9"/>
     </row>
     <row r="90" spans="1:15" ht="13">
       <c r="A90" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>46</v>
@@ -23886,37 +23887,37 @@
         <v>47</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I90" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K90" s="16"/>
       <c r="L90" s="15"/>
       <c r="M90" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N90" s="15"/>
       <c r="O90" s="9"/>
     </row>
     <row r="91" spans="1:15" ht="13">
       <c r="A91" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D91" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>26</v>
@@ -23925,51 +23926,51 @@
         <v>24</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="18"/>
       <c r="K91" s="16"/>
       <c r="L91" s="15"/>
       <c r="M91" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N91" s="15"/>
       <c r="O91" s="9"/>
     </row>
     <row r="92" spans="1:15" ht="13">
       <c r="A92" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D92" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F92" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
       <c r="M92" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N92" s="15"/>
       <c r="O92" s="9"/>
@@ -23980,10 +23981,10 @@
         <v>108</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>46</v>
@@ -23995,18 +23996,18 @@
         <v>47</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I93" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K93" s="16"/>
       <c r="L93" s="15"/>
       <c r="M93" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="9"/>
@@ -24017,31 +24018,31 @@
         <v>108</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D94" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H94" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="I94" s="15"/>
       <c r="J94" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
       <c r="M94" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N94" s="15"/>
     </row>
@@ -24051,13 +24052,13 @@
         <v>108</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>26</v>
@@ -24066,67 +24067,67 @@
         <v>24</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="18"/>
       <c r="K95" s="16"/>
       <c r="L95" s="15"/>
       <c r="M95" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N95" s="15"/>
       <c r="O95" s="9"/>
     </row>
     <row r="96" spans="1:15" ht="13">
       <c r="A96" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D96" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F96" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
       <c r="M96" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N96" s="15"/>
       <c r="O96" s="9"/>
     </row>
     <row r="97" spans="1:15" ht="13">
       <c r="A97" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>46</v>
@@ -24144,31 +24145,31 @@
         <v>40</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K97" s="16"/>
       <c r="L97" s="15"/>
       <c r="M97" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N97" s="15"/>
       <c r="O97" s="9"/>
     </row>
     <row r="98" spans="1:15" ht="13">
       <c r="A98" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D98" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>26</v>
@@ -24184,57 +24185,57 @@
       <c r="K98" s="16"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N98" s="15"/>
       <c r="O98" s="9"/>
     </row>
     <row r="99" spans="1:15" ht="13">
       <c r="A99" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D99" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F99" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
       <c r="M99" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N99" s="15"/>
       <c r="O99" s="9"/>
     </row>
     <row r="100" spans="1:15" ht="13.5" customHeight="1">
       <c r="A100" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>50</v>
@@ -24255,25 +24256,25 @@
         <v>40</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N100" s="15"/>
       <c r="O100" s="9"/>
     </row>
     <row r="101" spans="1:15" ht="13">
       <c r="A101" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>65</v>
@@ -24295,26 +24296,26 @@
       <c r="K101" s="16"/>
       <c r="L101" s="15"/>
       <c r="M101" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N101" s="15"/>
       <c r="O101" s="9"/>
     </row>
     <row r="102" spans="1:15" ht="13">
       <c r="A102" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>26</v>
@@ -24323,37 +24324,37 @@
         <v>47</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I102" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
       <c r="M102" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N102" s="15"/>
       <c r="O102" s="9"/>
     </row>
     <row r="103" spans="1:15" ht="13">
       <c r="A103" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F103" s="15" t="s">
         <v>26</v>
@@ -24362,33 +24363,33 @@
         <v>24</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I103" s="15"/>
       <c r="J103" s="19"/>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
       <c r="M103" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N103" s="15"/>
       <c r="O103" s="9"/>
     </row>
     <row r="104" spans="1:15" ht="13">
       <c r="A104" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>26</v>
@@ -24397,37 +24398,37 @@
         <v>47</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I104" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N104" s="15"/>
       <c r="O104" s="9"/>
     </row>
     <row r="105" spans="1:15" ht="13">
       <c r="A105" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>26</v>
@@ -24436,27 +24437,27 @@
         <v>24</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="19"/>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N105" s="15"/>
       <c r="O105" s="9"/>
     </row>
     <row r="106" spans="1:15" ht="13">
       <c r="A106" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>63</v>
@@ -24471,31 +24472,31 @@
         <v>47</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I106" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
       <c r="M106" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N106" s="15"/>
       <c r="O106" s="9"/>
     </row>
     <row r="107" spans="1:15" ht="13">
       <c r="A107" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>65</v>
@@ -24510,30 +24511,30 @@
         <v>24</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I107" s="16"/>
       <c r="J107" s="18"/>
       <c r="K107" s="16"/>
       <c r="L107" s="15"/>
       <c r="M107" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N107" s="15"/>
       <c r="O107" s="9"/>
     </row>
     <row r="108" spans="1:15" ht="13">
       <c r="A108" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="15" t="s">
         <v>46</v>
@@ -24545,37 +24546,37 @@
         <v>47</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I108" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
       <c r="M108" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N108" s="15"/>
       <c r="O108" s="9"/>
     </row>
     <row r="109" spans="1:15" ht="13">
       <c r="A109" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D109" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>26</v>
@@ -24584,30 +24585,30 @@
         <v>24</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I109" s="16"/>
       <c r="J109" s="18"/>
       <c r="K109" s="16"/>
       <c r="L109" s="15"/>
       <c r="M109" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N109" s="15"/>
       <c r="O109" s="9"/>
     </row>
     <row r="110" spans="1:15" ht="13">
       <c r="A110" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>46</v>
@@ -24619,71 +24620,71 @@
         <v>47</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I110" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
       <c r="M110" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N110" s="15"/>
       <c r="O110" s="9"/>
     </row>
     <row r="111" spans="1:15" ht="13">
       <c r="A111" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J111" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
       <c r="M111" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N111" s="15"/>
       <c r="O111" s="9"/>
     </row>
     <row r="112" spans="1:15" ht="13">
       <c r="A112" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>46</v>
@@ -24695,37 +24696,37 @@
         <v>47</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I112" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="15"/>
       <c r="M112" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N112" s="15"/>
       <c r="O112" s="9"/>
     </row>
     <row r="113" spans="1:15" ht="13">
       <c r="A113" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D113" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E113" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>26</v>
@@ -24734,14 +24735,14 @@
         <v>24</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="18"/>
       <c r="K113" s="16"/>
       <c r="L113" s="15"/>
       <c r="M113" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N113" s="15"/>
       <c r="O113" s="9"/>
@@ -24749,32 +24750,32 @@
     <row r="114" spans="1:15" ht="13">
       <c r="A114" s="14"/>
       <c r="B114" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="C114" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D114" s="15" t="s">
+      <c r="E114" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I114" s="16"/>
       <c r="J114" s="18"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
       <c r="M114" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N114" s="15"/>
       <c r="O114" s="9"/>
@@ -24782,13 +24783,13 @@
     <row r="115" spans="1:15" ht="13">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>46</v>
@@ -24800,18 +24801,18 @@
         <v>47</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I115" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
       <c r="M115" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N115" s="15"/>
       <c r="O115" s="9"/>
@@ -24819,16 +24820,16 @@
     <row r="116" spans="1:15" ht="13">
       <c r="A116" s="15"/>
       <c r="B116" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>26</v>
@@ -24837,18 +24838,18 @@
         <v>43</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
       <c r="M116" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N116" s="15"/>
       <c r="O116" s="9"/>
@@ -24856,16 +24857,16 @@
     <row r="117" spans="1:15" ht="13">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>362</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>26</v>
@@ -24874,14 +24875,14 @@
         <v>24</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I117" s="16"/>
       <c r="J117" s="18"/>
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
       <c r="M117" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N117" s="15"/>
       <c r="O117" s="9"/>
@@ -24889,34 +24890,34 @@
     <row r="118" spans="1:15" ht="13">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
       <c r="M118" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N118" s="15"/>
       <c r="O118" s="9"/>
@@ -24924,16 +24925,16 @@
     <row r="119" spans="1:15" ht="13">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D119" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>26</v>
@@ -24942,14 +24943,14 @@
         <v>24</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
       <c r="M119" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N119" s="15"/>
       <c r="O119" s="9"/>
@@ -24957,34 +24958,34 @@
     <row r="120" spans="1:15" ht="13">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
       <c r="M120" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N120" s="15"/>
       <c r="O120" s="9"/>
@@ -24992,16 +24993,16 @@
     <row r="121" spans="1:15" ht="13">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D121" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>26</v>
@@ -25010,14 +25011,14 @@
         <v>24</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
       <c r="M121" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N121" s="15"/>
       <c r="O121" s="9"/>
@@ -25025,34 +25026,34 @@
     <row r="122" spans="1:15" ht="13">
       <c r="A122" s="15"/>
       <c r="B122" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J122" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
       <c r="M122" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N122" s="15"/>
       <c r="O122" s="9"/>
@@ -25060,16 +25061,16 @@
     <row r="123" spans="1:15" ht="13">
       <c r="A123" s="15"/>
       <c r="B123" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D123" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E123" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>26</v>
@@ -25078,14 +25079,14 @@
         <v>24</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
       <c r="M123" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N123" s="15"/>
       <c r="O123" s="9"/>
@@ -25093,34 +25094,34 @@
     <row r="124" spans="1:15" ht="13">
       <c r="A124" s="15"/>
       <c r="B124" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J124" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
       <c r="M124" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N124" s="15"/>
       <c r="O124" s="9"/>
@@ -25128,13 +25129,13 @@
     <row r="125" spans="1:15" ht="13">
       <c r="A125" s="15"/>
       <c r="B125" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>46</v>
@@ -25146,18 +25147,18 @@
         <v>47</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I125" s="15" t="s">
         <v>40</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
       <c r="M125" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N125" s="15"/>
       <c r="O125" s="9"/>
@@ -25168,31 +25169,31 @@
         <v>1</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D126" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="F126" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I126" s="16"/>
       <c r="J126" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K126" s="16"/>
       <c r="L126" s="15"/>
       <c r="M126" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N126" s="15"/>
       <c r="O126" s="9"/>
@@ -25203,10 +25204,10 @@
         <v>108</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>46</v>
@@ -25224,12 +25225,12 @@
         <v>40</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K127" s="16"/>
       <c r="L127" s="15"/>
       <c r="M127" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N127" s="15"/>
       <c r="O127" s="9"/>
@@ -25240,7 +25241,7 @@
         <v>108</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D128" s="15" t="s">
         <v>109</v>
@@ -25266,7 +25267,7 @@
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
       <c r="M128" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N128" s="15"/>
       <c r="O128" s="9"/>
@@ -25277,7 +25278,7 @@
         <v>108</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D129" s="15" t="s">
         <v>113</v>
@@ -25298,12 +25299,12 @@
         <v>40</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
       <c r="M129" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N129" s="15"/>
       <c r="O129" s="9"/>
@@ -25314,7 +25315,7 @@
         <v>108</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D130" s="15" t="s">
         <v>116</v>
@@ -25340,7 +25341,7 @@
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
       <c r="M130" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N130" s="15"/>
       <c r="O130" s="9"/>
@@ -25351,7 +25352,7 @@
         <v>108</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>118</v>
@@ -25372,12 +25373,12 @@
         <v>40</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
       <c r="M131" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N131" s="15"/>
       <c r="O131" s="9"/>
@@ -25388,7 +25389,7 @@
         <v>108</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>121</v>
@@ -25409,12 +25410,12 @@
         <v>40</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
       <c r="M132" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N132" s="15"/>
       <c r="O132" s="9"/>
@@ -25425,7 +25426,7 @@
         <v>108</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>124</v>
@@ -25451,7 +25452,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N133" s="15"/>
       <c r="O133" s="9"/>
@@ -25462,7 +25463,7 @@
         <v>108</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>126</v>
@@ -25474,7 +25475,7 @@
         <v>16</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H134" s="15"/>
       <c r="I134" s="15" t="s">
@@ -26252,7 +26253,6 @@
       <c r="K286" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N134" xr:uid="{FB161B3E-A927-4FFA-BB5A-BD3D8C32966B}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H254:I254">
     <cfRule type="duplicateValues" dxfId="243" priority="414"/>
@@ -26777,13 +26777,13 @@
     </row>
     <row r="2" spans="1:4" ht="13">
       <c r="A2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>26</v>
@@ -26819,13 +26819,13 @@
     </row>
     <row r="5" spans="1:4" ht="13">
       <c r="A5" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>26</v>
@@ -26833,13 +26833,13 @@
     </row>
     <row r="6" spans="1:4" ht="13">
       <c r="A6" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>26</v>
@@ -26889,13 +26889,13 @@
     </row>
     <row r="10" spans="1:4" ht="13">
       <c r="A10" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>26</v>
@@ -26931,13 +26931,13 @@
     </row>
     <row r="13" spans="1:4" ht="13">
       <c r="A13" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>26</v>
@@ -26945,13 +26945,13 @@
     </row>
     <row r="14" spans="1:4" ht="13">
       <c r="A14" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>26</v>
@@ -26959,13 +26959,13 @@
     </row>
     <row r="15" spans="1:4" ht="13">
       <c r="A15" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>26</v>
@@ -26973,13 +26973,13 @@
     </row>
     <row r="16" spans="1:4" ht="13">
       <c r="A16" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>26</v>
@@ -26987,13 +26987,13 @@
     </row>
     <row r="17" spans="1:4" ht="13">
       <c r="A17" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>26</v>
@@ -27015,13 +27015,13 @@
     </row>
     <row r="19" spans="1:4" ht="13">
       <c r="A19" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>26</v>
@@ -27029,13 +27029,13 @@
     </row>
     <row r="20" spans="1:4" ht="13">
       <c r="A20" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>26</v>
@@ -27043,13 +27043,13 @@
     </row>
     <row r="21" spans="1:4" ht="13">
       <c r="A21" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>26</v>
@@ -27057,13 +27057,13 @@
     </row>
     <row r="22" spans="1:4" ht="13">
       <c r="A22" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>26</v>
@@ -27099,13 +27099,13 @@
     </row>
     <row r="25" spans="1:4" ht="13">
       <c r="A25" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>26</v>
@@ -27113,13 +27113,13 @@
     </row>
     <row r="26" spans="1:4" ht="13">
       <c r="A26" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>26</v>
@@ -27141,13 +27141,13 @@
     </row>
     <row r="28" spans="1:4" ht="13">
       <c r="A28" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>26</v>
@@ -27169,13 +27169,13 @@
     </row>
     <row r="30" spans="1:4" ht="13">
       <c r="A30" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>26</v>
@@ -27197,13 +27197,13 @@
     </row>
     <row r="32" spans="1:4" ht="13">
       <c r="A32" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>26</v>
@@ -27225,13 +27225,13 @@
     </row>
     <row r="34" spans="1:4" ht="13">
       <c r="A34" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>26</v>
@@ -27239,13 +27239,13 @@
     </row>
     <row r="35" spans="1:4" ht="13">
       <c r="A35" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>26</v>
@@ -27253,13 +27253,13 @@
     </row>
     <row r="36" spans="1:4" ht="13">
       <c r="A36" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>26</v>
@@ -27267,13 +27267,13 @@
     </row>
     <row r="37" spans="1:4" ht="13">
       <c r="A37" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>26</v>
@@ -27295,13 +27295,13 @@
     </row>
     <row r="39" spans="1:4" ht="13">
       <c r="A39" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>26</v>
@@ -27315,7 +27315,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>26</v>
@@ -27323,13 +27323,13 @@
     </row>
     <row r="41" spans="1:4" ht="13">
       <c r="A41" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>26</v>
@@ -27393,13 +27393,13 @@
     </row>
     <row r="46" spans="1:4" ht="13">
       <c r="A46" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>26</v>
@@ -27413,7 +27413,7 @@
         <v>79</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>26</v>
@@ -27463,13 +27463,13 @@
     </row>
     <row r="51" spans="1:4" ht="13">
       <c r="A51" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>26</v>
@@ -27519,13 +27519,13 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>26</v>
@@ -27561,13 +27561,13 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>26</v>
@@ -27575,13 +27575,13 @@
     </row>
     <row r="59" spans="1:4" ht="13">
       <c r="A59" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>26</v>
@@ -27589,13 +27589,13 @@
     </row>
     <row r="60" spans="1:4" ht="13">
       <c r="A60" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>26</v>
@@ -27603,13 +27603,13 @@
     </row>
     <row r="61" spans="1:4" ht="13">
       <c r="A61" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>26</v>
@@ -27617,13 +27617,13 @@
     </row>
     <row r="62" spans="1:4" ht="13">
       <c r="A62" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>26</v>
@@ -27631,13 +27631,13 @@
     </row>
     <row r="63" spans="1:4" ht="13">
       <c r="A63" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>26</v>
@@ -27645,13 +27645,13 @@
     </row>
     <row r="64" spans="1:4" ht="13">
       <c r="A64" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>26</v>
@@ -27659,13 +27659,13 @@
     </row>
     <row r="65" spans="1:4" ht="13">
       <c r="A65" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>26</v>
@@ -27673,13 +27673,13 @@
     </row>
     <row r="66" spans="1:4" ht="13">
       <c r="A66" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>26</v>
@@ -27687,13 +27687,13 @@
     </row>
     <row r="67" spans="1:4" ht="13">
       <c r="A67" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>26</v>
@@ -27701,13 +27701,13 @@
     </row>
     <row r="68" spans="1:4" ht="13">
       <c r="A68" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>26</v>
@@ -27729,13 +27729,13 @@
     </row>
     <row r="70" spans="1:4" ht="13">
       <c r="A70" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>26</v>
@@ -27743,13 +27743,13 @@
     </row>
     <row r="71" spans="1:4" ht="13">
       <c r="A71" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>26</v>
@@ -27791,7 +27791,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>26</v>
@@ -27799,13 +27799,13 @@
     </row>
     <row r="75" spans="1:4" ht="13">
       <c r="A75" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>26</v>
@@ -27813,13 +27813,13 @@
     </row>
     <row r="76" spans="1:4" ht="13">
       <c r="A76" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>26</v>
@@ -27897,13 +27897,13 @@
     </row>
     <row r="82" spans="1:4" ht="13">
       <c r="A82" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>26</v>
@@ -27931,7 +27931,7 @@
         <v>79</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>26</v>
@@ -27953,13 +27953,13 @@
     </row>
     <row r="86" spans="1:4" ht="13">
       <c r="A86" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>26</v>
@@ -27967,13 +27967,13 @@
     </row>
     <row r="87" spans="1:4" s="10" customFormat="1" ht="13">
       <c r="A87" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>26</v>

--- a/GL120_Script_ReverseJournals_21B.xlsx
+++ b/GL120_Script_ReverseJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17E80C4-2081-4BF2-98A0-10A14CEEF663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9134EE2-7535-48B2-AE33-F33DD2208EC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReverseJournal" sheetId="30" r:id="rId1"/>
@@ -18,16 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReverseJournal!$A$1:$N$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReverseJournal!$A$1:$N$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="452">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -889,87 +887,6 @@
     <t>Step 104</t>
   </si>
   <si>
-    <t>Step 106</t>
-  </si>
-  <si>
-    <t>Step 108</t>
-  </si>
-  <si>
-    <t>Step 109</t>
-  </si>
-  <si>
-    <t>Step 110</t>
-  </si>
-  <si>
-    <t>Step 111</t>
-  </si>
-  <si>
-    <t>Step 112</t>
-  </si>
-  <si>
-    <t>Step 113</t>
-  </si>
-  <si>
-    <t>Step 115</t>
-  </si>
-  <si>
-    <t>Step 116</t>
-  </si>
-  <si>
-    <t>Step 117</t>
-  </si>
-  <si>
-    <t>Step 118</t>
-  </si>
-  <si>
-    <t>Step 119</t>
-  </si>
-  <si>
-    <t>Step 120</t>
-  </si>
-  <si>
-    <t>Step 121</t>
-  </si>
-  <si>
-    <t>Step 122</t>
-  </si>
-  <si>
-    <t>Step 123</t>
-  </si>
-  <si>
-    <t>Step 124</t>
-  </si>
-  <si>
-    <t>Step 125</t>
-  </si>
-  <si>
-    <t>Step 126</t>
-  </si>
-  <si>
-    <t>Step 127</t>
-  </si>
-  <si>
-    <t>Step 128</t>
-  </si>
-  <si>
-    <t>Step 129</t>
-  </si>
-  <si>
-    <t>Step 130</t>
-  </si>
-  <si>
-    <t>Step 131</t>
-  </si>
-  <si>
-    <t>Step 132</t>
-  </si>
-  <si>
-    <t>Step 133</t>
-  </si>
-  <si>
-    <t>Step 134</t>
-  </si>
-  <si>
     <t>JournalNameR</t>
   </si>
   <si>
@@ -994,9 +911,6 @@
     <t>//span[text()='ne']</t>
   </si>
   <si>
-    <t>Step 107</t>
-  </si>
-  <si>
     <t>//tr[contains(@class,'xem')]/td[3]/span/a[contains(@id,'commandLink3')]</t>
   </si>
   <si>
@@ -1210,9 +1124,6 @@
     <t>Step 105</t>
   </si>
   <si>
-    <t>Step 114</t>
-  </si>
-  <si>
     <t>SelectRevPrd1</t>
   </si>
   <si>
@@ -1288,9 +1199,6 @@
     <t>Step 95</t>
   </si>
   <si>
-    <t>Step 135</t>
-  </si>
-  <si>
     <t>Click on Journal Period</t>
   </si>
   <si>
@@ -1337,6 +1245,151 @@
   </si>
   <si>
     <t>//*[contains(@id,'id__ctru160pc4')]</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes
+</t>
+  </si>
+  <si>
+    <t>Step 27</t>
+  </si>
+  <si>
+    <t>Step 47</t>
+  </si>
+  <si>
+    <t>Step 48</t>
+  </si>
+  <si>
+    <t>Step 52</t>
+  </si>
+  <si>
+    <t>Step 53</t>
+  </si>
+  <si>
+    <t>Step 54</t>
+  </si>
+  <si>
+    <t>Step 55</t>
+  </si>
+  <si>
+    <t>Step 56</t>
+  </si>
+  <si>
+    <t>Step 57</t>
+  </si>
+  <si>
+    <t>Step 58</t>
+  </si>
+  <si>
+    <t>Step 59</t>
+  </si>
+  <si>
+    <t>Step 60</t>
+  </si>
+  <si>
+    <t>Step 61</t>
+  </si>
+  <si>
+    <t>Step 62</t>
+  </si>
+  <si>
+    <t>Step 63</t>
+  </si>
+  <si>
+    <t>Step 64</t>
+  </si>
+  <si>
+    <t>Step 65</t>
+  </si>
+  <si>
+    <t>Step 66</t>
+  </si>
+  <si>
+    <t>Step 67</t>
+  </si>
+  <si>
+    <t>Step 68</t>
+  </si>
+  <si>
+    <t>Step 69</t>
+  </si>
+  <si>
+    <t>Step 70</t>
+  </si>
+  <si>
+    <t>Step 71</t>
+  </si>
+  <si>
+    <t>Step 72</t>
+  </si>
+  <si>
+    <t>Step 73</t>
+  </si>
+  <si>
+    <t>Step 74</t>
+  </si>
+  <si>
+    <t>Step 75</t>
+  </si>
+  <si>
+    <t>Step 76</t>
+  </si>
+  <si>
+    <t>Step 77</t>
+  </si>
+  <si>
+    <t>Step 78</t>
+  </si>
+  <si>
+    <t>Step 79</t>
+  </si>
+  <si>
+    <t>Step 80</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 100</t>
+  </si>
+  <si>
+    <t>Step 101</t>
+  </si>
+  <si>
+    <t>Step 102</t>
+  </si>
+  <si>
+    <t>Step 103</t>
+  </si>
+  <si>
+    <t>BatchStatus234</t>
+  </si>
+  <si>
+    <t>//span[label[text()=' Batch Status']]/select</t>
   </si>
 </sst>
 </file>
@@ -17652,7 +17705,187 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000931E0000}"/>
   </cellStyles>
-  <dxfs count="209">
+  <dxfs count="227">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20087,10 +20320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N254"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20152,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -20216,7 +20449,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3"/>
@@ -20366,7 +20599,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>50</v>
@@ -20387,7 +20620,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" t="s">
@@ -20400,7 +20633,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>65</v>
@@ -20427,13 +20660,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -20442,13 +20675,13 @@
         <v>47</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2" t="s">
@@ -20461,13 +20694,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>26</v>
@@ -20476,7 +20709,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="9"/>
@@ -20491,7 +20724,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>63</v>
@@ -20512,7 +20745,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" t="s">
@@ -20525,7 +20758,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>65</v>
@@ -20552,7 +20785,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>194</v>
@@ -20573,7 +20806,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" t="s">
@@ -20586,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>68</v>
@@ -20615,7 +20848,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
@@ -20636,7 +20869,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="M16" t="s">
         <v>189</v>
@@ -20650,7 +20883,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>73</v>
@@ -20679,7 +20912,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>88</v>
@@ -20700,7 +20933,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="M18" t="s">
         <v>189</v>
@@ -20714,7 +20947,7 @@
         <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>89</v>
@@ -20743,7 +20976,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>151</v>
@@ -20764,7 +20997,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>189</v>
@@ -20778,7 +21011,7 @@
         <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>159</v>
@@ -20799,7 +21032,7 @@
         <v>40</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>189</v>
@@ -20813,7 +21046,7 @@
         <v>108</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>145</v>
@@ -20834,7 +21067,7 @@
         <v>40</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="M22" t="s">
         <v>189</v>
@@ -20848,7 +21081,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>146</v>
@@ -20860,7 +21093,7 @@
         <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>142</v>
@@ -20877,7 +21110,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>163</v>
@@ -20898,7 +21131,7 @@
         <v>40</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="M24" t="s">
         <v>189</v>
@@ -20912,7 +21145,7 @@
         <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="D25" t="s">
         <v>192</v>
@@ -20921,17 +21154,17 @@
         <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G25" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H25"/>
       <c r="I25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -20947,7 +21180,7 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>158</v>
@@ -20968,7 +21201,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="M26" t="s">
         <v>189</v>
@@ -20982,7 +21215,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>159</v>
@@ -20994,7 +21227,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>149</v>
@@ -21011,7 +21244,7 @@
         <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>160</v>
@@ -21032,7 +21265,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="K28" s="6"/>
       <c r="M28" t="s">
@@ -21047,10 +21280,10 @@
         <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>46</v>
@@ -21059,14 +21292,14 @@
         <v>26</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>149</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="5" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s">
         <v>189</v>
@@ -21080,26 +21313,26 @@
         <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="K30" s="2"/>
       <c r="M30" s="2" t="s">
@@ -21114,13 +21347,13 @@
         <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>26</v>
@@ -21129,7 +21362,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J31" s="2"/>
       <c r="M31" s="2" t="s">
@@ -21144,13 +21377,13 @@
         <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>26</v>
@@ -21159,13 +21392,13 @@
         <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K32" s="6"/>
       <c r="M32" s="2" t="s">
@@ -21180,26 +21413,26 @@
         <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="K33" s="2"/>
       <c r="M33" s="2" t="s">
@@ -21214,31 +21447,29 @@
         <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="M34" t="s">
-        <v>189</v>
+      <c r="J34" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -21249,29 +21480,30 @@
         <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>56</v>
+        <v>347</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21283,30 +21515,30 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s">
-        <v>406</v>
-      </c>
-      <c r="G36" t="s">
-        <v>407</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36" t="s">
+      <c r="J36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21318,31 +21550,29 @@
         <v>108</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>95</v>
+        <v>404</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="M37" t="s">
-        <v>189</v>
+      <c r="J37" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -21353,29 +21583,30 @@
         <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>405</v>
+        <v>350</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>406</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="M38" s="2" t="s">
+      <c r="J38" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21387,30 +21618,29 @@
         <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>351</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>253</v>
+        <v>24</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="M39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="M39" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21422,29 +21652,30 @@
         <v>108</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" t="s">
+        <v>377</v>
+      </c>
+      <c r="G40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H40"/>
       <c r="I40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="M40" s="2" t="s">
+      <c r="J40" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21456,10 +21687,10 @@
         <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>46</v>
@@ -21471,13 +21702,13 @@
         <v>47</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J41" s="14" t="s">
-        <v>396</v>
+      <c r="J41" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M41" t="s">
         <v>189</v>
@@ -21491,24 +21722,29 @@
         <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M42" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="M42" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21520,10 +21756,10 @@
         <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>185</v>
+        <v>355</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>46</v>
@@ -21532,19 +21768,18 @@
         <v>26</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>186</v>
+        <v>253</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" t="s">
+      <c r="J43" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21558,29 +21793,27 @@
       <c r="C44" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
+      <c r="D44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" t="s">
+      <c r="J44" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -21592,24 +21825,29 @@
         <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L45" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="M45" t="s">
         <v>189</v>
       </c>
@@ -21622,30 +21860,23 @@
         <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L46" s="10"/>
+        <v>57</v>
+      </c>
       <c r="M46" t="s">
         <v>189</v>
       </c>
@@ -21658,22 +21889,28 @@
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>358</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>203</v>
+        <v>47</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" t="s">
@@ -21688,10 +21925,10 @@
         <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>46</v>
@@ -21703,13 +21940,13 @@
         <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" t="s">
@@ -21724,13 +21961,13 @@
         <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>26</v>
@@ -21739,7 +21976,7 @@
         <v>24</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" t="s">
@@ -21754,28 +21991,29 @@
         <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" t="s">
-        <v>406</v>
-      </c>
-      <c r="G50" t="s">
-        <v>407</v>
-      </c>
-      <c r="H50"/>
+        <v>359</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="I50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K50" s="6"/>
+      <c r="J50" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" t="s">
         <v>189</v>
@@ -21789,30 +22027,24 @@
         <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>215</v>
+        <v>360</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K51" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="L51" s="10"/>
       <c r="M51" t="s">
         <v>189</v>
       </c>
@@ -21825,28 +22057,29 @@
         <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D52" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" t="s">
-        <v>406</v>
-      </c>
-      <c r="G52" t="s">
-        <v>407</v>
-      </c>
-      <c r="H52"/>
+        <v>361</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="I52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K52" s="6"/>
+      <c r="J52" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" t="s">
         <v>189</v>
@@ -21860,28 +22093,24 @@
         <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>215</v>
+        <v>410</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K53" s="6"/>
+      <c r="L53" s="10"/>
       <c r="M53" t="s">
         <v>189</v>
       </c>
@@ -21894,7 +22123,7 @@
         <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="D54" t="s">
         <v>193</v>
@@ -21903,17 +22132,17 @@
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G54" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="10"/>
@@ -21929,30 +22158,30 @@
         <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>216</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L55" s="10"/>
+      <c r="J55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="6"/>
       <c r="M55" t="s">
         <v>189</v>
       </c>
@@ -21965,23 +22194,28 @@
         <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>378</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" s="6"/>
       <c r="L56" s="10"/>
       <c r="M56" t="s">
         <v>189</v>
@@ -21995,30 +22229,28 @@
         <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>414</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="L57" s="10"/>
+        <v>211</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K57" s="6"/>
       <c r="M57" t="s">
         <v>189</v>
       </c>
@@ -22031,7 +22263,7 @@
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
         <v>193</v>
@@ -22040,17 +22272,17 @@
         <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G58" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H58"/>
       <c r="I58" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="10"/>
@@ -22066,10 +22298,10 @@
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>220</v>
+        <v>416</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>46</v>
@@ -22080,14 +22312,14 @@
       <c r="G59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>218</v>
+      <c r="H59" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>396</v>
+      <c r="J59" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" t="s">
@@ -22102,13 +22334,13 @@
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>222</v>
+        <v>417</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>26</v>
@@ -22116,8 +22348,8 @@
       <c r="G60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>218</v>
+      <c r="H60" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" t="s">
@@ -22132,10 +22364,10 @@
         <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>46</v>
@@ -22147,13 +22379,13 @@
         <v>47</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" t="s">
@@ -22168,23 +22400,28 @@
         <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>377</v>
+      </c>
+      <c r="G62" t="s">
+        <v>378</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K62" s="6"/>
       <c r="L62" s="10"/>
       <c r="M62" t="s">
         <v>189</v>
@@ -22198,29 +22435,30 @@
         <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D63" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" t="s">
-        <v>406</v>
-      </c>
-      <c r="G63" t="s">
-        <v>407</v>
-      </c>
-      <c r="H63"/>
+        <v>420</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="I63" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63"/>
+        <v>367</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="M63" t="s">
         <v>189</v>
       </c>
@@ -22233,35 +22471,29 @@
         <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:13" customFormat="1">
+    <row r="65" spans="1:13">
       <c r="A65" s="4" t="s">
         <v>201</v>
       </c>
@@ -22269,29 +22501,30 @@
         <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="G65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="L65" s="10"/>
       <c r="M65" t="s">
         <v>189</v>
       </c>
@@ -22304,13 +22537,13 @@
         <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
@@ -22319,7 +22552,7 @@
         <v>24</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" t="s">
@@ -22334,7 +22567,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
         <v>192</v>
@@ -22343,17 +22576,17 @@
         <v>193</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G67" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H67"/>
       <c r="I67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="K67"/>
       <c r="L67"/>
@@ -22369,10 +22602,10 @@
         <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>231</v>
+        <v>425</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>46</v>
@@ -22383,21 +22616,21 @@
       <c r="G68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>62</v>
+      <c r="H68" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>201</v>
       </c>
@@ -22405,24 +22638,29 @@
         <v>108</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>281</v>
+        <v>426</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>24</v>
+      <c r="G69" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="10"/>
+        <v>299</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" t="s">
         <v>189</v>
       </c>
@@ -22435,29 +22673,24 @@
         <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" t="s">
-        <v>406</v>
-      </c>
-      <c r="G70" t="s">
-        <v>407</v>
-      </c>
-      <c r="H70"/>
-      <c r="I70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K70"/>
-      <c r="L70"/>
+        <v>427</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L70" s="10"/>
       <c r="M70" t="s">
         <v>189</v>
       </c>
@@ -22466,35 +22699,34 @@
       <c r="A71" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>1</v>
+      <c r="B71" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71" t="s">
+        <v>377</v>
+      </c>
+      <c r="G71" t="s">
+        <v>378</v>
+      </c>
+      <c r="H71"/>
       <c r="I71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J71" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K71" s="2"/>
-      <c r="M71" s="2" t="s">
+      <c r="J71" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22502,31 +22734,35 @@
       <c r="A72" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
+      <c r="B72" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>403</v>
+        <v>429</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="2"/>
-      <c r="M72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22538,29 +22774,24 @@
         <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" t="s">
-        <v>193</v>
-      </c>
-      <c r="F73" t="s">
-        <v>406</v>
-      </c>
-      <c r="G73" t="s">
-        <v>407</v>
-      </c>
-      <c r="H73"/>
-      <c r="I73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K73"/>
-      <c r="L73"/>
+        <v>430</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L73" s="10"/>
       <c r="M73" t="s">
         <v>189</v>
       </c>
@@ -22569,34 +22800,33 @@
       <c r="A74" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
+      <c r="B74" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>427</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" t="s">
+        <v>378</v>
+      </c>
+      <c r="H74"/>
       <c r="I74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J74" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="K74" s="2"/>
+      <c r="J74" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
       <c r="M74" t="s">
         <v>189</v>
       </c>
@@ -22609,24 +22839,31 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="M75" t="s">
+        <v>394</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="M75" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22638,31 +22875,27 @@
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>286</v>
+        <v>433</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>396</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="2"/>
-      <c r="M76" t="s">
+      <c r="M76" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22670,27 +22903,33 @@
       <c r="A77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>1</v>
+      <c r="B77" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>428</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" t="s">
+        <v>377</v>
+      </c>
+      <c r="G77" t="s">
+        <v>378</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77"/>
       <c r="M77" t="s">
         <v>189</v>
       </c>
@@ -22703,10 +22942,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>46</v>
@@ -22717,14 +22956,14 @@
       <c r="G78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>239</v>
+      <c r="H78" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="K78" s="2"/>
       <c r="M78" t="s">
@@ -22735,33 +22974,27 @@
       <c r="A79" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>244</v>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F79" t="s">
-        <v>406</v>
-      </c>
-      <c r="G79" t="s">
-        <v>407</v>
-      </c>
-      <c r="H79"/>
-      <c r="I79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K79"/>
-      <c r="L79"/>
+        <v>436</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="M79" t="s">
         <v>189</v>
       </c>
@@ -22774,10 +23007,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>290</v>
+        <v>437</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>46</v>
@@ -22788,14 +23021,14 @@
       <c r="G80" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>241</v>
+      <c r="H80" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="K80" s="2"/>
       <c r="M80" t="s">
@@ -22810,13 +23043,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>26</v>
@@ -22824,8 +23057,8 @@
       <c r="G81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>241</v>
+      <c r="H81" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="M81" t="s">
         <v>189</v>
@@ -22836,28 +23069,33 @@
         <v>201</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>291</v>
+        <v>439</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K82" s="2"/>
       <c r="M82" t="s">
         <v>189</v>
       </c>
@@ -22866,35 +23104,33 @@
       <c r="A83" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>328</v>
+      <c r="B83" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" t="s">
+        <v>377</v>
+      </c>
+      <c r="G83" t="s">
+        <v>378</v>
+      </c>
+      <c r="H83"/>
       <c r="I83" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+        <v>371</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
       <c r="M83" t="s">
         <v>189</v>
       </c>
@@ -22904,34 +23140,33 @@
         <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>293</v>
+        <v>441</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K84" s="2"/>
       <c r="M84" t="s">
         <v>189</v>
       </c>
@@ -22941,16 +23176,16 @@
         <v>201</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>294</v>
+        <v>442</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>335</v>
+        <v>242</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>26</v>
@@ -22959,10 +23194,8 @@
         <v>24</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+        <v>241</v>
+      </c>
       <c r="M85" t="s">
         <v>189</v>
       </c>
@@ -22972,29 +23205,25 @@
         <v>201</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" t="s">
-        <v>192</v>
-      </c>
-      <c r="F86" t="s">
-        <v>406</v>
-      </c>
-      <c r="G86" t="s">
-        <v>407</v>
-      </c>
-      <c r="H86"/>
-      <c r="I86" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>399</v>
+        <v>443</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -23007,28 +23236,32 @@
         <v>201</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I87"/>
-      <c r="J87"/>
+        <v>304</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" t="s">
@@ -23040,29 +23273,31 @@
         <v>201</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D88" t="s">
-        <v>192</v>
-      </c>
-      <c r="E88" t="s">
-        <v>192</v>
-      </c>
-      <c r="F88" t="s">
-        <v>406</v>
-      </c>
-      <c r="G88" t="s">
-        <v>407</v>
-      </c>
-      <c r="H88"/>
+        <v>445</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="I88" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="14" t="s">
-        <v>399</v>
+        <v>306</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -23075,16 +23310,16 @@
         <v>201</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>26</v>
@@ -23093,10 +23328,8 @@
         <v>24</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I89"/>
-      <c r="J89"/>
+        <v>314</v>
+      </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" t="s">
@@ -23108,10 +23341,10 @@
         <v>201</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="D90" t="s">
         <v>192</v>
@@ -23120,17 +23353,17 @@
         <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G90" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H90"/>
       <c r="I90" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J90" s="16" t="s">
-        <v>398</v>
+      <c r="J90" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -23143,10 +23376,10 @@
         <v>201</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>242</v>
@@ -23176,10 +23409,10 @@
         <v>201</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="D92" t="s">
         <v>192</v>
@@ -23188,17 +23421,17 @@
         <v>192</v>
       </c>
       <c r="F92" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="G92" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="H92"/>
       <c r="I92" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J92" s="16" t="s">
-        <v>398</v>
+      <c r="J92" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -23211,32 +23444,28 @@
         <v>201</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J93" s="14" t="s">
-        <v>396</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="I93"/>
+      <c r="J93"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" t="s">
@@ -23248,114 +23477,119 @@
         <v>201</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" t="s">
+        <v>377</v>
+      </c>
+      <c r="G94" t="s">
+        <v>378</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="13"/>
-      <c r="B95" s="4" t="s">
-        <v>108</v>
+      <c r="A95" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>198</v>
+        <v>386</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J95" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L95" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="13"/>
-      <c r="B96" s="4" t="s">
-        <v>108</v>
+      <c r="A96" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" t="s">
+        <v>377</v>
+      </c>
+      <c r="G96" t="s">
+        <v>378</v>
+      </c>
+      <c r="H96"/>
       <c r="I96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="13"/>
-      <c r="B97" s="4" t="s">
-        <v>108</v>
+      <c r="A97" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>26</v>
@@ -23364,49 +23598,48 @@
         <v>47</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J97" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K97" s="2"/>
+      <c r="J97" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
       <c r="M97" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="13"/>
-      <c r="B98" s="4" t="s">
-        <v>108</v>
+      <c r="A98" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="M98" t="s">
         <v>189</v>
       </c>
@@ -23417,13 +23650,13 @@
         <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>281</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>26</v>
@@ -23431,16 +23664,16 @@
       <c r="G99" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>120</v>
+      <c r="H99" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="K99" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="L99" s="10"/>
       <c r="M99" t="s">
         <v>189</v>
       </c>
@@ -23451,28 +23684,28 @@
         <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="15" t="s">
-        <v>397</v>
+        <v>25</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K100" s="2"/>
       <c r="M100" t="s">
@@ -23485,28 +23718,28 @@
         <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>310</v>
+        <v>446</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="K101" s="2"/>
       <c r="M101" t="s">
@@ -23519,19 +23752,22 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>275</v>
+        <v>24</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>25</v>
@@ -23540,27 +23776,140 @@
         <v>25</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="M102"/>
+      <c r="M102" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="K103" s="2"/>
+      <c r="M103" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>368</v>
+      </c>
       <c r="K104" s="2"/>
+      <c r="M104" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="K105" s="2"/>
+      <c r="M105" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K106" s="2"/>
+      <c r="M106"/>
     </row>
     <row r="107" spans="1:13">
       <c r="I107" s="2"/>
@@ -23589,7 +23938,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="I112" s="2"/>
-      <c r="J112" s="7"/>
+      <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="9:11">
@@ -23609,7 +23958,7 @@
     </row>
     <row r="116" spans="9:11">
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="2"/>
     </row>
     <row r="117" spans="9:11">
@@ -24232,455 +24581,510 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="9:11">
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="9:11">
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="9:11">
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="9:11">
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="9:11">
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="9:11">
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="9:11">
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="9:11">
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="9:11">
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="9:11">
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="9:11">
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="9:11">
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="4"/>
-      <c r="B253" s="8"/>
+    <row r="253" spans="9:11">
       <c r="I253" s="2"/>
-      <c r="J253" s="9"/>
+      <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="9:11">
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
+    <row r="255" spans="9:11">
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="9:11">
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" s="4"/>
+      <c r="B257" s="8"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="H222:I222">
-    <cfRule type="duplicateValues" dxfId="208" priority="446"/>
+  <conditionalFormatting sqref="H226:I226">
+    <cfRule type="duplicateValues" dxfId="226" priority="461"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222:I222">
-    <cfRule type="duplicateValues" dxfId="207" priority="447"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="448"/>
+  <conditionalFormatting sqref="H226:I226">
+    <cfRule type="duplicateValues" dxfId="225" priority="462"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="463"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="205" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="453"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="204" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="221" priority="451"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="220" priority="452"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="duplicateValues" dxfId="219" priority="449"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="218" priority="450"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="217" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="duplicateValues" dxfId="216" priority="429"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="215" priority="422"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="214" priority="423"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="213" priority="420"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="duplicateValues" dxfId="212" priority="421"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="211" priority="418"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="duplicateValues" dxfId="210" priority="419"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="209" priority="406"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="208" priority="407"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="207" priority="401"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="206" priority="402"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="duplicateValues" dxfId="205" priority="383"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="duplicateValues" dxfId="204" priority="384"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="203" priority="379"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="202" priority="380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="201" priority="377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="200" priority="378"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="199" priority="375"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="198" priority="376"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="duplicateValues" dxfId="197" priority="373"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="196" priority="374"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="duplicateValues" dxfId="195" priority="369"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="194" priority="370"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="duplicateValues" dxfId="193" priority="367"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="192" priority="368"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80">
+    <cfRule type="duplicateValues" dxfId="191" priority="358"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="190" priority="355"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="duplicateValues" dxfId="189" priority="356"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="188" priority="353"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="duplicateValues" dxfId="187" priority="354"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="186" priority="322"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="185" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="184" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="324"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="duplicateValues" dxfId="182" priority="320"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="181" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="180" priority="292"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="179" priority="293"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="178" priority="291"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="177" priority="287"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="176" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="174" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="173" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="172" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="171" priority="285"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="170" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="284"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="168" priority="281"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="167" priority="278"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="166" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="280"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="164" priority="277"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="163" priority="276"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="duplicateValues" dxfId="162" priority="273"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="duplicateValues" dxfId="161" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="275"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="duplicateValues" dxfId="159" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="duplicateValues" dxfId="158" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="duplicateValues" dxfId="157" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="156" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="duplicateValues" dxfId="155" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="154" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J90:J91">
+    <cfRule type="duplicateValues" dxfId="153" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="duplicateValues" dxfId="152" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="duplicateValues" dxfId="151" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="duplicateValues" dxfId="150" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="149" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="duplicateValues" dxfId="148" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94 J97">
+    <cfRule type="duplicateValues" dxfId="147" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="146" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:J93">
+    <cfRule type="duplicateValues" dxfId="145" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="duplicateValues" dxfId="144" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="143" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="142" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="duplicateValues" dxfId="140" priority="464"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="139" priority="465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="138" priority="466"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="467"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="136" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="duplicateValues" dxfId="135" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="133" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="132" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="duplicateValues" dxfId="130" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="duplicateValues" dxfId="129" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="duplicateValues" dxfId="128" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="127" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="126" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="125" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="123" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="122" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="duplicateValues" dxfId="120" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="119" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="118" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="116" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="115" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="114" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="duplicateValues" dxfId="112" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="111" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="110" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="109" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="108" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="106" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="105" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="103" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="100" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="99" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="97" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="96" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="95" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="94" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="93" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="duplicateValues" dxfId="92" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="duplicateValues" dxfId="91" priority="470"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="duplicateValues" dxfId="203" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="202" priority="437"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="duplicateValues" dxfId="201" priority="434"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="duplicateValues" dxfId="200" priority="435"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="199" priority="413"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="198" priority="414"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="197" priority="407"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="196" priority="408"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="195" priority="405"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="duplicateValues" dxfId="194" priority="406"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="193" priority="403"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="192" priority="404"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="191" priority="391"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="190" priority="392"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="189" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="188" priority="387"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="duplicateValues" dxfId="187" priority="368"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="duplicateValues" dxfId="186" priority="369"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="185" priority="364"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="184" priority="365"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="183" priority="362"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="182" priority="363"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="181" priority="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="180" priority="361"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="179" priority="358"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="178" priority="359"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="177" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="176" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="175" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="174" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="173" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="172" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="duplicateValues" dxfId="171" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="duplicateValues" dxfId="170" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="duplicateValues" dxfId="169" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="168" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="duplicateValues" dxfId="167" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="166" priority="308"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="duplicateValues" dxfId="164" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="duplicateValues" dxfId="163" priority="306"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="162" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="161" priority="278"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="160" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="159" priority="272"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="158" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="274"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="156" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="155" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="154" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="153" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="152" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="150" priority="266"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="149" priority="263"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="148" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="146" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="145" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="144" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="143" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="duplicateValues" dxfId="141" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="duplicateValues" dxfId="140" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="duplicateValues" dxfId="139" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="138" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="137" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="136" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86:J87">
-    <cfRule type="duplicateValues" dxfId="135" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="134" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="133" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="duplicateValues" dxfId="132" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="131" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="duplicateValues" dxfId="130" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90 J93">
-    <cfRule type="duplicateValues" dxfId="129" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="duplicateValues" dxfId="128" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J89">
-    <cfRule type="duplicateValues" dxfId="127" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="duplicateValues" dxfId="126" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="125" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="duplicateValues" dxfId="124" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="duplicateValues" dxfId="122" priority="449"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="121" priority="450"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="120" priority="451"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="452"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="118" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="117" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="115" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="duplicateValues" dxfId="114" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="duplicateValues" dxfId="112" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="duplicateValues" dxfId="111" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="duplicateValues" dxfId="110" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="109" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="108" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="107" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="105" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="104" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="102" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="101" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="100" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="duplicateValues" dxfId="98" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="97" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="96" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="duplicateValues" dxfId="94" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="duplicateValues" dxfId="93" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="92" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="91" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="90" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="88" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="87" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="84" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="73" priority="455"/>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I222 I2:I3 I5 I83:I84 I8 I12 I14 I16 I18 I20 I22 I24:I26 I33:I34 I71 I43:I44 I46 I48 I36:I41 I52 I61 I63:I64 I67:I68 I70 I76 I78:I80 I86 I88 I90 I92:I93 I95 I97 I99:I100 I10 I73:I74 I30 I50 I57:I59 I54:I55" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G27 F28 F33:G50 F29:G31 F52:G52 F32 F51 F53 F54:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" sqref="I226 I2:I3 I5 I87:I88 I8 I12 I14 I16 I18 I20 I22 I24:I26 I58:I59 I47:I48 I50 I52 I40:I45 I56 I65 I67:I68 I71:I72 I74:I75 I80 I82:I84 I90 I92 I94 I96:I97 I99 I101 I103:I104 I10 I77:I78 I30 I54 I61:I63 I33 I38" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G27 F28 F58:G1048576 F29:G31 F56:G56 F32 F55 F57 F33:G54" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -24693,8 +25097,8 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -24778,13 +25182,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
@@ -24834,13 +25238,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -24876,13 +25280,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -24890,7 +25294,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>79</v>
@@ -24910,7 +25314,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
@@ -24924,7 +25328,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>26</v>
@@ -24980,7 +25384,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
@@ -25142,13 +25546,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>26</v>
@@ -25190,7 +25594,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>26</v>
@@ -25198,7 +25602,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>79</v>
@@ -25260,7 +25664,7 @@
         <v>79</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>26</v>
@@ -25520,13 +25924,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>26</v>
@@ -25534,13 +25938,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>26</v>
@@ -25568,7 +25972,7 @@
         <v>79</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>26</v>
@@ -25596,7 +26000,7 @@
         <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>26</v>
@@ -25674,13 +26078,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>26</v>
@@ -25744,13 +26148,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>26</v>
@@ -25758,13 +26162,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>26</v>
@@ -25912,13 +26316,13 @@
     </row>
     <row r="87" spans="1:4" s="11" customFormat="1">
       <c r="A87" s="4" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>26</v>
@@ -25932,7 +26336,7 @@
         <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>26</v>
@@ -25940,13 +26344,13 @@
     </row>
     <row r="90" spans="1:4" s="11" customFormat="1">
       <c r="A90" s="2" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>26</v>
@@ -25954,13 +26358,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>26</v>
@@ -25968,13 +26372,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>26</v>
@@ -25982,13 +26386,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>26</v>
@@ -25999,14 +26403,25 @@
     </row>
     <row r="95" spans="1:4">
       <c r="C95" s="4" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="4"/>
+    <row r="97" spans="1:4" s="11" customFormat="1">
+      <c r="A97" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D86" xr:uid="{26AABE72-C1FF-4087-A4E2-564F2B2651C1}">
@@ -26017,176 +26432,183 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D58">
     <sortCondition ref="D13:D58"/>
   </sortState>
-  <conditionalFormatting sqref="A35:A41 A1 A51 A55:A60 A67 A70:A71 A74:A75 A78 A82:A83 A89 A93:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="95"/>
+  <conditionalFormatting sqref="A35:A41 A1 A51 A55:A60 A67 A70:A71 A74:A75 A78 A82:A83 A89 A93:A96 A98:A1048576">
+    <cfRule type="duplicateValues" dxfId="90" priority="98"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A41 A1 A51 A55:A60 A67 A70:A71 A74:A75 A78 A82:A83 A89 A93:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="97"/>
+  <conditionalFormatting sqref="A35:A41 A1 A51 A55:A60 A67 A70:A71 A74:A75 A78 A82:A83 A89 A93:A96 A98:A1048576">
+    <cfRule type="duplicateValues" dxfId="89" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="69" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="68" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A12 A17 A14:A15">
-    <cfRule type="duplicateValues" dxfId="66" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A12 A17 A14:A15">
-    <cfRule type="duplicateValues" dxfId="65" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A34">
-    <cfRule type="duplicateValues" dxfId="63" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A34">
-    <cfRule type="duplicateValues" dxfId="62" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="60" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="59" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A44">
-    <cfRule type="duplicateValues" dxfId="57" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A44">
-    <cfRule type="duplicateValues" dxfId="56" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A49">
-    <cfRule type="duplicateValues" dxfId="54" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A49">
-    <cfRule type="duplicateValues" dxfId="53" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="50" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="44" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A65">
-    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A65">
-    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A97">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
